--- a/database/changelog/changelog(20190812).xlsx
+++ b/database/changelog/changelog(20190812).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14265"/>
+    <workbookView windowWidth="28800" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -177,16 +177,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,33 +199,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,32 +274,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,46 +313,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,187 +341,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +554,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,30 +588,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,11 +633,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,144 +667,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1164,7 +1158,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1184,30 +1178,30 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1228,16 +1222,16 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1245,29 +1239,29 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="2" t="str">
         <f>IF(COUNTA(K3:XFD3)=0,"[]","["""&amp;_xlfn.TEXTJOIN(""",""",TRUE,H3:XFD3)&amp;"""]")</f>
         <v>[]</v>
       </c>
-      <c r="E3" s="4" t="str">
+      <c r="E3" s="2" t="str">
         <f>IF(COUNTA(H3)=0,"[]","["""&amp;_xlfn.TEXTJOIN(""",""",TRUE,H3)&amp;"""]")</f>
         <v>["弹道速度38→24"]</v>
       </c>
-      <c r="F3" s="4" t="str">
+      <c r="F3" s="2" t="str">
         <f>IF(COUNTA(I3)=0,"[]","["""&amp;_xlfn.TEXTJOIN(""",""",TRUE,I3)&amp;"""]")</f>
         <v>[]</v>
       </c>
-      <c r="G3" s="4" t="str">
+      <c r="G3" s="2" t="str">
         <f>IF(COUNTA(J3)=0,"[]","["""&amp;_xlfn.TEXTJOIN(""",""",TRUE,J3)&amp;"""]")</f>
         <v>[]</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1275,29 +1269,29 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="2" t="str">
         <f t="shared" ref="D4:D13" si="0">IF(COUNTA(K4:XFD4)=0,"[]","["""&amp;_xlfn.TEXTJOIN(""",""",TRUE,H4:XFD4)&amp;"""]")</f>
         <v>[]</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="2" t="str">
         <f t="shared" ref="E4:E13" si="1">IF(COUNTA(H4)=0,"[]","["""&amp;_xlfn.TEXTJOIN(""",""",TRUE,H4)&amp;"""]")</f>
         <v>[]</v>
       </c>
-      <c r="F4" s="4" t="str">
+      <c r="F4" s="2" t="str">
         <f t="shared" ref="F4:F13" si="2">IF(COUNTA(I4)=0,"[]","["""&amp;_xlfn.TEXTJOIN(""",""",TRUE,I4)&amp;"""]")</f>
         <v>[]</v>
       </c>
-      <c r="G4" s="4" t="str">
+      <c r="G4" s="2" t="str">
         <f t="shared" ref="G4:G13" si="3">IF(COUNTA(J4)=0,"[]","["""&amp;_xlfn.TEXTJOIN(""",""",TRUE,J4)&amp;"""]")</f>
         <v>["P点消耗8→3"]</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1305,29 +1299,29 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>[]</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>["可以在第一次攻击时不打破隐身但是攻击力降低到80%。"]</v>
       </c>
-      <c r="F5" s="4" t="str">
+      <c r="F5" s="2" t="str">
         <f t="shared" si="2"/>
         <v>[]</v>
       </c>
-      <c r="G5" s="4" t="str">
+      <c r="G5" s="2" t="str">
         <f t="shared" si="3"/>
         <v>[]</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1335,29 +1329,29 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>["费用32→33"]</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>[]</v>
       </c>
-      <c r="F6" s="4" t="str">
+      <c r="F6" s="2" t="str">
         <f t="shared" si="2"/>
         <v>[]</v>
       </c>
-      <c r="G6" s="4" t="str">
+      <c r="G6" s="2" t="str">
         <f t="shared" si="3"/>
         <v>[]</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1365,29 +1359,29 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>["普攻攻速1.1/s→0.88/s"]</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>[]</v>
       </c>
-      <c r="F7" s="4" t="str">
+      <c r="F7" s="2" t="str">
         <f t="shared" si="2"/>
         <v>[]</v>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="G7" s="2" t="str">
         <f t="shared" si="3"/>
         <v>[]</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1395,29 +1389,29 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>["费用45→42"]</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>[]</v>
       </c>
-      <c r="F8" s="4" t="str">
+      <c r="F8" s="2" t="str">
         <f t="shared" si="2"/>
         <v>[]</v>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="G8" s="2" t="str">
         <f t="shared" si="3"/>
         <v>[]</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1425,32 +1419,32 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>["费用15→14","生命值60→65"]</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>[]</v>
       </c>
-      <c r="F9" s="4" t="str">
+      <c r="F9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>[]</v>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="G9" s="2" t="str">
         <f t="shared" si="3"/>
         <v>[]</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1458,29 +1452,29 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>["攻速0.42/s→0.48/s"]</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>[]</v>
       </c>
-      <c r="F10" s="4" t="str">
+      <c r="F10" s="2" t="str">
         <f t="shared" si="2"/>
         <v>[]</v>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="G10" s="2" t="str">
         <f t="shared" si="3"/>
         <v>[]</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1488,29 +1482,29 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>["生命值38→42"]</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>[]</v>
       </c>
-      <c r="F11" s="4" t="str">
+      <c r="F11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>[]</v>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="G11" s="2" t="str">
         <f t="shared" si="3"/>
         <v>[]</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1518,29 +1512,29 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>["生命值72→80"]</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>[]</v>
       </c>
-      <c r="F12" s="4" t="str">
+      <c r="F12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>[]</v>
       </c>
-      <c r="G12" s="4" t="str">
+      <c r="G12" s="2" t="str">
         <f t="shared" si="3"/>
         <v>[]</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1548,32 +1542,32 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>["生命值45→62","护甲2→0"]</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>[]</v>
       </c>
-      <c r="F13" s="4" t="str">
+      <c r="F13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>[]</v>
       </c>
-      <c r="G13" s="4" t="str">
+      <c r="G13" s="2" t="str">
         <f t="shared" si="3"/>
         <v>[]</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="2" t="s">
         <v>43</v>
       </c>
     </row>
